--- a/basicos_resultados_NIÑO.xlsx
+++ b/basicos_resultados_NIÑO.xlsx
@@ -3301,7 +3301,7 @@
         <v>44986</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3310,11 +3310,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="139">
@@ -3322,7 +3322,7 @@
         <v>44986</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3331,11 +3331,11 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="140">
@@ -3343,7 +3343,7 @@
         <v>45017</v>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3352,11 +3352,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="141">
@@ -3364,7 +3364,7 @@
         <v>45017</v>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3373,11 +3373,11 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="142">
@@ -3385,7 +3385,7 @@
         <v>45047</v>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3394,11 +3394,11 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="143">
@@ -3406,7 +3406,7 @@
         <v>45078</v>
       </c>
       <c r="B143" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3415,11 +3415,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="144">
@@ -3427,7 +3427,7 @@
         <v>45108</v>
       </c>
       <c r="B144" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3436,11 +3436,11 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="145">
@@ -3448,7 +3448,7 @@
         <v>45139</v>
       </c>
       <c r="B145" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3457,11 +3457,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="146">
@@ -3469,7 +3469,7 @@
         <v>45170</v>
       </c>
       <c r="B146" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3478,11 +3478,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="147">
@@ -3490,7 +3490,7 @@
         <v>45200</v>
       </c>
       <c r="B147" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3499,11 +3499,11 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="148">
@@ -3511,7 +3511,7 @@
         <v>45231</v>
       </c>
       <c r="B148" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3520,11 +3520,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="149">
@@ -3532,7 +3532,7 @@
         <v>45261</v>
       </c>
       <c r="B149" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3541,11 +3541,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="150">
@@ -3553,7 +3553,7 @@
         <v>45292</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3562,11 +3562,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="151">
@@ -3574,7 +3574,7 @@
         <v>45323</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3583,11 +3583,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CHAQUETA</t>
+          <t>BUZO</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="152">
@@ -3595,7 +3595,7 @@
         <v>44986</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3604,11 +3604,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="153">
@@ -3616,7 +3616,7 @@
         <v>44986</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3625,11 +3625,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="154">
@@ -3637,7 +3637,7 @@
         <v>45017</v>
       </c>
       <c r="B154" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3646,11 +3646,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="155">
@@ -3658,7 +3658,7 @@
         <v>45017</v>
       </c>
       <c r="B155" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3667,11 +3667,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="156">
@@ -3679,7 +3679,7 @@
         <v>45047</v>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3688,11 +3688,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="157">
@@ -3700,7 +3700,7 @@
         <v>45078</v>
       </c>
       <c r="B157" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="158">
@@ -3721,7 +3721,7 @@
         <v>45108</v>
       </c>
       <c r="B158" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3730,11 +3730,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="159">
@@ -3742,7 +3742,7 @@
         <v>45139</v>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3751,11 +3751,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="160">
@@ -3763,7 +3763,7 @@
         <v>45170</v>
       </c>
       <c r="B160" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3772,11 +3772,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="161">
@@ -3784,7 +3784,7 @@
         <v>45200</v>
       </c>
       <c r="B161" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3793,11 +3793,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="162">
@@ -3805,7 +3805,7 @@
         <v>45231</v>
       </c>
       <c r="B162" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3814,11 +3814,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="163">
@@ -3826,7 +3826,7 @@
         <v>45261</v>
       </c>
       <c r="B163" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3835,11 +3835,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="164">
@@ -3847,7 +3847,7 @@
         <v>45292</v>
       </c>
       <c r="B164" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3856,11 +3856,11 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="165">
@@ -3868,7 +3868,7 @@
         <v>45323</v>
       </c>
       <c r="B165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3877,11 +3877,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>BUZO</t>
+          <t>CAMISA MANGA CORTA</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="166">
@@ -3898,11 +3898,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="167">
@@ -3919,11 +3919,11 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="168">
@@ -3940,11 +3940,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="169">
@@ -3961,11 +3961,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="170">
@@ -3973,7 +3973,7 @@
         <v>45047</v>
       </c>
       <c r="B170" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="171">
@@ -3994,7 +3994,7 @@
         <v>45078</v>
       </c>
       <c r="B171" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4003,11 +4003,11 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="172">
@@ -4015,7 +4015,7 @@
         <v>45108</v>
       </c>
       <c r="B172" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4024,11 +4024,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="173">
@@ -4045,11 +4045,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="174">
@@ -4066,11 +4066,11 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="175">
@@ -4078,7 +4078,7 @@
         <v>45200</v>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4087,11 +4087,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="176">
@@ -4099,7 +4099,7 @@
         <v>45231</v>
       </c>
       <c r="B176" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4108,11 +4108,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="177">
@@ -4120,7 +4120,7 @@
         <v>45261</v>
       </c>
       <c r="B177" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4129,11 +4129,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="178">
@@ -4150,11 +4150,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="179">
@@ -4171,11 +4171,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>CAMISA MANGA CORTA</t>
+          <t>CAMISA MANGA LARGA</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="180">
@@ -4192,11 +4192,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="181">
@@ -4213,11 +4213,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="182">
@@ -4225,7 +4225,7 @@
         <v>45017</v>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4234,11 +4234,11 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="183">
@@ -4246,7 +4246,7 @@
         <v>45017</v>
       </c>
       <c r="B183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4255,11 +4255,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="184">
@@ -4267,7 +4267,7 @@
         <v>45047</v>
       </c>
       <c r="B184" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4276,11 +4276,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="185">
@@ -4288,7 +4288,7 @@
         <v>45078</v>
       </c>
       <c r="B185" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4297,11 +4297,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="186">
@@ -4318,11 +4318,11 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="187">
@@ -4330,7 +4330,7 @@
         <v>45139</v>
       </c>
       <c r="B187" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4339,11 +4339,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="188">
@@ -4351,7 +4351,7 @@
         <v>45170</v>
       </c>
       <c r="B188" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4360,11 +4360,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="189">
@@ -4372,7 +4372,7 @@
         <v>45200</v>
       </c>
       <c r="B189" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4381,11 +4381,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="190">
@@ -4393,7 +4393,7 @@
         <v>45231</v>
       </c>
       <c r="B190" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4402,11 +4402,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="191">
@@ -4414,7 +4414,7 @@
         <v>45261</v>
       </c>
       <c r="B191" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4423,11 +4423,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="192">
@@ -4444,11 +4444,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="193">
@@ -4465,11 +4465,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>CAMISA MANGA LARGA</t>
+          <t>CHAQUETA</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="194">
